--- a/Documentation/08 - Project Management/Tidsregistrering/Allan Strange - Tidsregistrering.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Allan Strange - Tidsregistrering.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -268,6 +268,24 @@
   </si>
   <si>
     <t>Klassediagram + SD erLaengdeNormal</t>
+  </si>
+  <si>
+    <t>Lave OC9</t>
+  </si>
+  <si>
+    <t>Review OC10</t>
+  </si>
+  <si>
+    <t>Review OC12</t>
+  </si>
+  <si>
+    <t>Review OC14</t>
+  </si>
+  <si>
+    <t>Sekvensdiagram + klassediagram til OC9</t>
+  </si>
+  <si>
+    <t>Sekvensdiagram + klassediagram til OC8</t>
   </si>
 </sst>
 </file>
@@ -371,8 +389,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A3:I18" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A3:I18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A3:I25" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A3:I25"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Kolonne1" dataDxfId="2"/>
     <tableColumn id="2" name="Kolonne2"/>
@@ -685,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +715,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
@@ -800,8 +818,8 @@
       <c r="H5" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I5">
-        <v>7</v>
+      <c r="I5" s="5">
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -823,8 +841,8 @@
       <c r="H6" s="5">
         <v>0.4375</v>
       </c>
-      <c r="I6">
-        <v>2.5</v>
+      <c r="I6" s="5">
+        <v>0.10416666666666667</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -847,8 +865,8 @@
       <c r="H7" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I7">
-        <v>5</v>
+      <c r="I7" s="5">
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -870,8 +888,8 @@
       <c r="H8" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="I8">
-        <v>1</v>
+      <c r="I8" s="5">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -893,8 +911,8 @@
       <c r="H9" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I9">
-        <v>6</v>
+      <c r="I9" s="5">
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -916,8 +934,8 @@
       <c r="H10" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I10">
-        <v>2</v>
+      <c r="I10" s="5">
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -939,8 +957,8 @@
       <c r="H11" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I11">
-        <v>4</v>
+      <c r="I11" s="5">
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -962,8 +980,8 @@
       <c r="H12" s="5">
         <v>0.55208333333333337</v>
       </c>
-      <c r="I12">
-        <v>5.25</v>
+      <c r="I12" s="5">
+        <v>0.21875</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -985,8 +1003,8 @@
       <c r="H13" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I13">
-        <v>2</v>
+      <c r="I13" s="5">
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1008,8 +1026,8 @@
       <c r="H14" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I14">
-        <v>7.5</v>
+      <c r="I14" s="5">
+        <v>0.3125</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1031,8 +1049,8 @@
       <c r="H15" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I15">
-        <v>7.5</v>
+      <c r="I15" s="5">
+        <v>0.3125</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1054,8 +1072,8 @@
       <c r="H16" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="I16">
-        <v>0.25</v>
+      <c r="I16" s="5">
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1077,8 +1095,8 @@
       <c r="H17" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="I17">
-        <v>1</v>
+      <c r="I17" s="5">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1100,24 +1118,170 @@
       <c r="H18" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I18">
-        <v>0.5</v>
+      <c r="I18" s="5">
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3.125E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I24" s="5">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I25" s="5">
+        <v>3.125E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/08 - Project Management/Tidsregistrering/Allan Strange - Tidsregistrering.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Allan Strange - Tidsregistrering.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Sekvensdiagram + klassediagram til OC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavet OC16 </t>
+  </si>
+  <si>
+    <t>Arbejdet med Testsuite til OC13</t>
   </si>
 </sst>
 </file>
@@ -389,8 +395,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A3:I25" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A3:I25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A3:I28" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A3:I28"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Kolonne1" dataDxfId="2"/>
     <tableColumn id="2" name="Kolonne2"/>
@@ -703,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,6 +1287,75 @@
       </c>
       <c r="I25" s="5">
         <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I26" s="5">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Allan Strange - Tidsregistrering.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Allan Strange - Tidsregistrering.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>Arbejdet med Testsuite til OC13</t>
+  </si>
+  <si>
+    <t>Implementering af OC15 &amp; OC16</t>
+  </si>
+  <si>
+    <t>Implementeret test til Test Suite OC7</t>
   </si>
 </sst>
 </file>
@@ -395,8 +401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A3:I28" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A3:I28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A3:I30" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A3:I30"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Kolonne1" dataDxfId="2"/>
     <tableColumn id="2" name="Kolonne2"/>
@@ -709,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,6 +1362,52 @@
       </c>
       <c r="I28" s="5">
         <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.17708333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42816</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.11458333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Allan Strange - Tidsregistrering.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Allan Strange - Tidsregistrering.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t>Implementeret test til Test Suite OC7</t>
+  </si>
+  <si>
+    <t>Implementeret ReferencespaendingTest</t>
+  </si>
+  <si>
+    <t>Aflevering af projektet</t>
+  </si>
+  <si>
+    <t>Undervisning</t>
+  </si>
+  <si>
+    <t>sigmaRef regner forkert</t>
   </si>
 </sst>
 </file>
@@ -401,8 +413,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A3:I30" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A3:I30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A3:I34" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A3:I34"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Kolonne1" dataDxfId="2"/>
     <tableColumn id="2" name="Kolonne2"/>
@@ -715,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,6 +1420,98 @@
       </c>
       <c r="I30" s="5">
         <v>0.11458333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I31" s="5">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="I32" s="5">
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I33" s="5">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I34" s="5">
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Allan Strange - Tidsregistrering.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Allan Strange - Tidsregistrering.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>sigmaRef regner forkert</t>
+  </si>
+  <si>
+    <t>Bug fixing</t>
   </si>
 </sst>
 </file>
@@ -413,8 +416,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A3:I34" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A3:I34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A3:I36" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A3:I36"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Kolonne1" dataDxfId="2"/>
     <tableColumn id="2" name="Kolonne2"/>
@@ -727,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,6 +1515,52 @@
       </c>
       <c r="I34" s="5">
         <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42818</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I35" s="5">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42818</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.10416666666666667</v>
       </c>
     </row>
   </sheetData>
